--- a/output/1Y_P9_1VAL-D.xlsx
+++ b/output/1Y_P9_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>9.807499999999999</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>1019.6278</v>
       </c>
-      <c r="G2" s="1">
-        <v>1019.6278</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.100899999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>9.807499999999999</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>0.5</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.100899999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>10.4459</v>
       </c>
+      <c r="E3" s="1">
+        <v>1019.6278</v>
+      </c>
       <c r="F3" s="1">
         <v>957.3134</v>
       </c>
-      <c r="G3" s="1">
-        <v>1976.9412</v>
-      </c>
       <c r="H3" s="1">
-        <v>20543.7802</v>
+        <v>10595.6666</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10.1166</v>
+        <v>10595.6666</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>9.807499999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20543.7802</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0299</v>
+        <v>0.0596</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>9.6988</v>
       </c>
+      <c r="E4" s="1">
+        <v>1976.9412</v>
+      </c>
       <c r="F4" s="1">
         <v>1031.0554</v>
       </c>
-      <c r="G4" s="1">
-        <v>3007.9966</v>
-      </c>
       <c r="H4" s="1">
-        <v>29022.3546</v>
+        <v>19074.3198</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>9.9734</v>
+        <v>19074.3198</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>10.1166</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29022.3546</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0498</v>
+        <v>-0.07389999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>10.0658</v>
       </c>
+      <c r="E5" s="1">
+        <v>3007.9966</v>
+      </c>
       <c r="F5" s="1">
         <v>993.463</v>
       </c>
-      <c r="G5" s="1">
-        <v>4001.4596</v>
-      </c>
       <c r="H5" s="1">
-        <v>40068.616</v>
+        <v>30120.5742</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>9.9964</v>
+        <v>30120.5742</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>9.9734</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40068.616</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0268</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>11.2848</v>
       </c>
+      <c r="E6" s="1">
+        <v>4001.4596</v>
+      </c>
       <c r="F6" s="1">
         <v>886.1477</v>
       </c>
-      <c r="G6" s="1">
-        <v>4887.6074</v>
-      </c>
       <c r="H6" s="1">
-        <v>54869.7466</v>
+        <v>44921.5863</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>10.23</v>
+        <v>44921.5863</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>9.9964</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>54869.7466</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0959</v>
+        <v>0.1197</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>11.1341</v>
       </c>
+      <c r="E7" s="1">
+        <v>4887.6074</v>
+      </c>
       <c r="F7" s="1">
         <v>898.1417</v>
       </c>
-      <c r="G7" s="1">
-        <v>5785.7491</v>
-      </c>
       <c r="H7" s="1">
-        <v>64085.2715</v>
+        <v>54137.0943</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>10.3703</v>
+        <v>54137.0943</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>10.23</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>64085.2715</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0121</v>
+        <v>-0.0143</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>10.9064</v>
       </c>
+      <c r="E8" s="1">
+        <v>5785.7491</v>
+      </c>
       <c r="F8" s="1">
         <v>916.8928</v>
       </c>
-      <c r="G8" s="1">
-        <v>6702.642</v>
-      </c>
       <c r="H8" s="1">
-        <v>72722.32460000001</v>
+        <v>62774.2208</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>10.4436</v>
+        <v>62774.2208</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>10.3703</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72722.32460000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0184</v>
+        <v>-0.0212</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>11.6267</v>
       </c>
+      <c r="E9" s="1">
+        <v>6702.642</v>
+      </c>
       <c r="F9" s="1">
         <v>860.0893</v>
       </c>
-      <c r="G9" s="1">
-        <v>7562.7312</v>
-      </c>
       <c r="H9" s="1">
-        <v>87472.81819999999</v>
+        <v>77524.76760000001</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>10.5782</v>
+        <v>77524.76760000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>10.4436</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>87472.81819999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0574</v>
+        <v>0.0653</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>12.3095</v>
       </c>
+      <c r="E10" s="1">
+        <v>7562.7312</v>
+      </c>
       <c r="F10" s="1">
         <v>812.3807</v>
       </c>
-      <c r="G10" s="1">
-        <v>8375.1119</v>
-      </c>
       <c r="H10" s="1">
-        <v>102558.2704</v>
+        <v>92610.18150000001</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>10.7461</v>
+        <v>92610.18150000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>10.5782</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>102558.2704</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0522</v>
+        <v>0.0581</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>13.3876</v>
       </c>
+      <c r="E11" s="1">
+        <v>8375.1119</v>
+      </c>
       <c r="F11" s="1">
         <v>746.9598999999999</v>
       </c>
-      <c r="G11" s="1">
-        <v>9122.0718</v>
-      </c>
       <c r="H11" s="1">
-        <v>121489.5764</v>
+        <v>111541.4154</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>10.9624</v>
+        <v>111541.4154</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>10.7461</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>121489.5764</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0793</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>13.3141</v>
       </c>
+      <c r="E12" s="1">
+        <v>9122.0718</v>
+      </c>
       <c r="F12" s="1">
         <v>751.0834</v>
       </c>
-      <c r="G12" s="1">
-        <v>9873.155199999999</v>
-      </c>
       <c r="H12" s="1">
-        <v>130769.9409</v>
+        <v>120821.8408</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>11.1413</v>
+        <v>120821.8408</v>
       </c>
       <c r="K12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>10.9624</v>
+      </c>
+      <c r="M12" s="1">
         <v>0.6</v>
       </c>
-      <c r="L12" s="1">
-        <v>4925.9188</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>-5074.0812</v>
+        <v>4522.5604</v>
       </c>
       <c r="O12" s="1">
-        <v>4925.9188</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>135695.8597</v>
+        <v>-5477.4396</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.032</v>
+        <v>-0.0059</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>13.7208</v>
       </c>
+      <c r="E13" s="1">
+        <v>9873.155199999999</v>
+      </c>
       <c r="F13" s="1">
-        <v>1087.8315</v>
-      </c>
-      <c r="G13" s="1">
-        <v>10960.9867</v>
+        <v>1058.4339</v>
       </c>
       <c r="H13" s="1">
-        <v>149613.0846</v>
+        <v>134764.6195</v>
       </c>
       <c r="I13" s="1">
-        <v>124925.9188</v>
+        <v>4522.5604</v>
       </c>
       <c r="J13" s="1">
-        <v>11.3973</v>
+        <v>139287.1799</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>114522.5604</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>11.5994</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-14925.9188</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>149613.0846</v>
+        <v>-14522.5604</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0269</v>
+        <v>0.06469999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>14.2021</v>
       </c>
+      <c r="E14" s="1">
+        <v>10931.5892</v>
+      </c>
       <c r="F14" s="1">
-        <v>-10960.9867</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-9873.155199999999</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>154445.8643</v>
       </c>
       <c r="I14" s="1">
-        <v>124925.9188</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>11.3973</v>
+        <v>154445.8643</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>114522.5604</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>10.4763</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>154861.2051</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>154861.2051</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>154861.2051</v>
+        <v>139491.8862</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0298</v>
+        <v>0.0346</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>9.807499999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1019.6278</v>
       </c>
       <c r="G2" s="1">
-        <v>1019.6278</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.100899999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>9.807499999999999</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>0.5</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.100899999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>10.4459</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>1019.6278</v>
       </c>
       <c r="F3" s="1">
         <v>904.9851</v>
       </c>
       <c r="G3" s="1">
-        <v>1924.6129</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10595.6666</v>
       </c>
       <c r="I3" s="1">
-        <v>19453.3836</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10.1077</v>
+        <v>10595.6666</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9453.383599999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>9.2714</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9453.383599999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>546.6164</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20546.6164</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.03</v>
+        <v>0.0596</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>9.6988</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1924.6129</v>
       </c>
       <c r="F4" s="1">
         <v>1087.4146</v>
       </c>
       <c r="G4" s="1">
-        <v>3012.0275</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>29061.2459</v>
+        <v>18569.4352</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>546.6164</v>
       </c>
       <c r="J4" s="1">
-        <v>9.960100000000001</v>
+        <v>19116.0516</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>10.3917</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10546.6164</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29061.2459</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0486</v>
+        <v>-0.0718</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>10.0658</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>3012.0275</v>
       </c>
       <c r="F5" s="1">
         <v>982.5798</v>
       </c>
       <c r="G5" s="1">
-        <v>3994.6073</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>30160.9372</v>
       </c>
       <c r="I5" s="1">
-        <v>39890.4518</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>9.9861</v>
+        <v>30160.9372</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29890.4518</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>9.9237</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9890.451800000001</v>
       </c>
-      <c r="O5" s="1">
-        <v>109.5482</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40109.5482</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0268</v>
+        <v>0.0359</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>11.2848</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>3994.6073</v>
       </c>
       <c r="F6" s="1">
         <v>459.2199</v>
       </c>
       <c r="G6" s="1">
-        <v>4453.8272</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>44844.6597</v>
       </c>
       <c r="I6" s="1">
-        <v>45072.6564</v>
+        <v>109.5482</v>
       </c>
       <c r="J6" s="1">
-        <v>10.12</v>
+        <v>44954.2079</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>35072.6564</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-5182.2047</v>
       </c>
-      <c r="O6" s="1">
-        <v>4927.3436</v>
-      </c>
-      <c r="P6" s="1">
-        <v>54927.3436</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0961</v>
+        <v>0.1194</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>11.1341</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>4453.8272</v>
       </c>
       <c r="F7" s="1">
         <v>963.0953</v>
       </c>
       <c r="G7" s="1">
-        <v>5416.9225</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>49332.3713</v>
       </c>
       <c r="I7" s="1">
-        <v>55795.8557</v>
+        <v>4927.3436</v>
       </c>
       <c r="J7" s="1">
-        <v>10.3003</v>
+        <v>54259.7149</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>45795.8557</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>10.2824</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10723.1993</v>
       </c>
-      <c r="O7" s="1">
-        <v>4204.1443</v>
-      </c>
-      <c r="P7" s="1">
-        <v>64204.1443</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0111</v>
+        <v>-0.0126</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>10.9064</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>5416.9225</v>
       </c>
       <c r="F8" s="1">
         <v>1034.8094</v>
       </c>
       <c r="G8" s="1">
-        <v>6451.7318</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>58772.5254</v>
       </c>
       <c r="I8" s="1">
-        <v>67081.90059999999</v>
+        <v>4204.1443</v>
       </c>
       <c r="J8" s="1">
-        <v>10.3975</v>
+        <v>62976.6697</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>57081.9006</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>10.5377</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-11286.0448</v>
       </c>
-      <c r="O8" s="1">
-        <v>2918.0994</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72918.09940000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0173</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>11.6267</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>6451.7318</v>
       </c>
       <c r="F9" s="1">
         <v>464.9139</v>
       </c>
       <c r="G9" s="1">
-        <v>6916.6458</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>74622.66590000001</v>
       </c>
       <c r="I9" s="1">
-        <v>72487.3155</v>
+        <v>2918.0994</v>
       </c>
       <c r="J9" s="1">
-        <v>10.4801</v>
+        <v>77540.7653</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>62487.3155</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>9.6854</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-5405.4149</v>
       </c>
-      <c r="O9" s="1">
-        <v>7512.6845</v>
-      </c>
-      <c r="P9" s="1">
-        <v>87512.6845</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0554</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>12.3095</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>6916.6458</v>
       </c>
       <c r="F10" s="1">
         <v>432.9329</v>
       </c>
       <c r="G10" s="1">
-        <v>7349.5786</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>84698.47749999999</v>
       </c>
       <c r="I10" s="1">
-        <v>77816.5024</v>
+        <v>7512.6845</v>
       </c>
       <c r="J10" s="1">
-        <v>10.5879</v>
+        <v>92211.162</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>67816.5024</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>9.8048</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-5329.1869</v>
       </c>
-      <c r="O10" s="1">
-        <v>12183.4976</v>
-      </c>
-      <c r="P10" s="1">
-        <v>102183.4976</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0479</v>
+        <v>0.0534</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>13.3876</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>7349.5786</v>
       </c>
       <c r="F11" s="1">
         <v>158.9435</v>
       </c>
       <c r="G11" s="1">
-        <v>7508.5222</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>97883.158</v>
       </c>
       <c r="I11" s="1">
-        <v>79944.3751</v>
+        <v>12183.4976</v>
       </c>
       <c r="J11" s="1">
-        <v>10.6472</v>
+        <v>110066.6556</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>69944.3751</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>9.5168</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-2127.8726</v>
       </c>
-      <c r="O11" s="1">
-        <v>20055.6249</v>
-      </c>
-      <c r="P11" s="1">
-        <v>120055.6249</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0702</v>
+        <v>0.0769</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>13.3141</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>7508.5222</v>
       </c>
       <c r="F12" s="1">
         <v>796.4986</v>
       </c>
       <c r="G12" s="1">
-        <v>8305.0208</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>99450.3762</v>
       </c>
       <c r="I12" s="1">
-        <v>90549.037</v>
+        <v>20055.6249</v>
       </c>
       <c r="J12" s="1">
-        <v>10.9029</v>
+        <v>119506.0011</v>
       </c>
       <c r="K12" s="1">
+        <v>80549.037</v>
+      </c>
+      <c r="L12" s="1">
+        <v>10.7277</v>
+      </c>
+      <c r="M12" s="1">
         <v>0.6</v>
       </c>
-      <c r="L12" s="1">
-        <v>4054.602</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>-6550.0599</v>
+        <v>3968.7725</v>
       </c>
       <c r="O12" s="1">
-        <v>23505.565</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>133505.565</v>
+        <v>-6635.8894</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0265</v>
+        <v>-0.0047</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>13.7208</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>8305.0208</v>
       </c>
       <c r="F13" s="1">
         <v>486.4457</v>
       </c>
       <c r="G13" s="1">
-        <v>8791.466399999999</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>113360.2114</v>
       </c>
       <c r="I13" s="1">
-        <v>97223.4605</v>
+        <v>23419.7355</v>
       </c>
       <c r="J13" s="1">
-        <v>11.0588</v>
+        <v>136779.9469</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>87223.4605</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>10.5025</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-6674.4235</v>
       </c>
-      <c r="O13" s="1">
-        <v>26831.1415</v>
-      </c>
-      <c r="P13" s="1">
-        <v>146831.1415</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0232</v>
+        <v>0.0562</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>14.2021</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8791.466399999999</v>
       </c>
       <c r="F14" s="1">
         <v>-8791.466399999999</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>124209.3541</v>
       </c>
       <c r="I14" s="1">
-        <v>97223.4605</v>
+        <v>26745.312</v>
       </c>
       <c r="J14" s="1">
-        <v>11.0588</v>
+        <v>150954.6661</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>87223.4605</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>9.9214</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>124209.3541</v>
       </c>
-      <c r="O14" s="1">
-        <v>151040.4956</v>
-      </c>
-      <c r="P14" s="1">
-        <v>151040.4956</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0369</v>
+        <v>0.0284</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>9.807499999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1019.6278</v>
       </c>
       <c r="G2" s="1">
-        <v>1019.6278</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.100899999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>9.807499999999999</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>0.5</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.100899999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>10.4459</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>1019.6278</v>
       </c>
       <c r="F3" s="1">
         <v>909.7966</v>
       </c>
       <c r="G3" s="1">
-        <v>1929.4244</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10595.6666</v>
       </c>
       <c r="I3" s="1">
-        <v>19503.6444</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10.1085</v>
+        <v>10595.6666</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9503.644399999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>9.3207</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9503.644399999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>496.3556</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20546.3556</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.03</v>
+        <v>0.0596</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>9.6988</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1929.4244</v>
       </c>
       <c r="F4" s="1">
         <v>1082.2324</v>
       </c>
       <c r="G4" s="1">
-        <v>3011.6568</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29057.6699</v>
+        <v>18615.8588</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>496.3556</v>
       </c>
       <c r="J4" s="1">
-        <v>9.9613</v>
+        <v>19112.2144</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>10.3658</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10496.3556</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29057.6699</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0487</v>
+        <v>-0.07199999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>10.0658</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>3011.6568</v>
       </c>
       <c r="F5" s="1">
         <v>993.463</v>
       </c>
       <c r="G5" s="1">
-        <v>4005.1199</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40105.2677</v>
+        <v>30157.2258</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>9.9872</v>
+        <v>30157.2258</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>9.9613</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40105.2677</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0268</v>
+        <v>0.0359</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>11.2848</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>4005.1199</v>
       </c>
       <c r="F6" s="1">
         <v>493.4688</v>
       </c>
       <c r="G6" s="1">
-        <v>4498.5887</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>44962.6771</v>
       </c>
       <c r="I6" s="1">
-        <v>45568.6971</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>10.1296</v>
+        <v>44962.6771</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>35568.6971</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>8.880800000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-5568.6971</v>
       </c>
-      <c r="O6" s="1">
-        <v>4431.3029</v>
-      </c>
-      <c r="P6" s="1">
-        <v>54933.8091</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0964</v>
+        <v>0.1197</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>11.1341</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>4498.5887</v>
       </c>
       <c r="F7" s="1">
         <v>986.4983999999999</v>
       </c>
       <c r="G7" s="1">
-        <v>5485.0871</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>49828.1678</v>
       </c>
       <c r="I7" s="1">
-        <v>56552.4691</v>
+        <v>4431.3029</v>
       </c>
       <c r="J7" s="1">
-        <v>10.3102</v>
+        <v>54259.4707</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>46552.4691</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>10.3482</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10983.7719</v>
       </c>
-      <c r="O7" s="1">
-        <v>3447.5309</v>
-      </c>
-      <c r="P7" s="1">
-        <v>64202.5497</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0113</v>
+        <v>-0.0128</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>10.9064</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>5485.0871</v>
       </c>
       <c r="F8" s="1">
         <v>1064.2312</v>
       </c>
       <c r="G8" s="1">
-        <v>6549.3183</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>59512.098</v>
       </c>
       <c r="I8" s="1">
-        <v>68159.4004</v>
+        <v>3447.5309</v>
       </c>
       <c r="J8" s="1">
-        <v>10.4071</v>
+        <v>62959.629</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>58159.4004</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>10.6032</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-11606.9313</v>
       </c>
-      <c r="O8" s="1">
-        <v>1840.5996</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72899.39350000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0176</v>
+        <v>-0.0202</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>11.6267</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>6549.3183</v>
       </c>
       <c r="F9" s="1">
         <v>489.5868</v>
       </c>
       <c r="G9" s="1">
-        <v>7038.9051</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>75751.3805</v>
       </c>
       <c r="I9" s="1">
-        <v>73851.67879999999</v>
+        <v>1840.5996</v>
       </c>
       <c r="J9" s="1">
-        <v>10.4919</v>
+        <v>77591.9801</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>63851.6788</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>9.7494</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-5692.2784</v>
       </c>
-      <c r="O9" s="1">
-        <v>6148.3212</v>
-      </c>
-      <c r="P9" s="1">
-        <v>87562.409</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0562</v>
+        <v>0.0635</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>12.3095</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>7038.9051</v>
       </c>
       <c r="F10" s="1">
         <v>459.3929</v>
       </c>
       <c r="G10" s="1">
-        <v>7498.298</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>86195.6161</v>
       </c>
       <c r="I10" s="1">
-        <v>79506.5762</v>
+        <v>6148.3212</v>
       </c>
       <c r="J10" s="1">
-        <v>10.6033</v>
+        <v>92343.93730000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>69506.5762</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>9.874599999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-5654.8974</v>
       </c>
-      <c r="O10" s="1">
-        <v>10493.4238</v>
-      </c>
-      <c r="P10" s="1">
-        <v>102314.5821</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0487</v>
+        <v>0.0543</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>13.3876</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>7498.298</v>
       </c>
       <c r="F11" s="1">
         <v>181.4383</v>
       </c>
       <c r="G11" s="1">
-        <v>7679.7363</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>99863.8328</v>
       </c>
       <c r="I11" s="1">
-        <v>81935.59940000001</v>
+        <v>10493.4238</v>
       </c>
       <c r="J11" s="1">
-        <v>10.6691</v>
+        <v>110357.2565</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>71935.59940000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>9.5936</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-2429.0231</v>
       </c>
-      <c r="O11" s="1">
-        <v>18064.4006</v>
-      </c>
-      <c r="P11" s="1">
-        <v>120344.6647</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.07149999999999999</v>
+        <v>0.07829999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>13.3141</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>7679.7363</v>
       </c>
       <c r="F12" s="1">
         <v>836.0557</v>
       </c>
       <c r="G12" s="1">
-        <v>8515.791999999999</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>101718.1074</v>
       </c>
       <c r="I12" s="1">
-        <v>93066.92879999999</v>
+        <v>18064.4006</v>
       </c>
       <c r="J12" s="1">
-        <v>10.9287</v>
+        <v>119782.508</v>
       </c>
       <c r="K12" s="1">
+        <v>83066.92879999999</v>
+      </c>
+      <c r="L12" s="1">
+        <v>10.8164</v>
+      </c>
+      <c r="M12" s="1">
         <v>0.6</v>
       </c>
-      <c r="L12" s="1">
-        <v>4147.0576</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>-6984.2719</v>
+        <v>4049.0809</v>
       </c>
       <c r="O12" s="1">
-        <v>21080.1288</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>133871.7942</v>
+        <v>-7082.2485</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0271</v>
+        <v>-0.0048</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>13.7208</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>8515.791999999999</v>
       </c>
       <c r="F13" s="1">
         <v>521.5148</v>
       </c>
       <c r="G13" s="1">
-        <v>9037.3069</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>116237.1549</v>
       </c>
       <c r="I13" s="1">
-        <v>100222.5296</v>
+        <v>20982.1521</v>
       </c>
       <c r="J13" s="1">
-        <v>11.0899</v>
+        <v>137219.3069</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>90222.52959999999</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>10.5947</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-7155.6007</v>
       </c>
-      <c r="O13" s="1">
-        <v>23924.528</v>
-      </c>
-      <c r="P13" s="1">
-        <v>147280.1518</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0237</v>
+        <v>0.0573</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>14.2021</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>9037.3069</v>
       </c>
       <c r="F14" s="1">
         <v>-9037.3069</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>127682.6863</v>
       </c>
       <c r="I14" s="1">
-        <v>100222.5296</v>
+        <v>23826.5514</v>
       </c>
       <c r="J14" s="1">
-        <v>11.0899</v>
+        <v>151509.2376</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>90222.52959999999</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>9.9833</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>127682.6863</v>
       </c>
-      <c r="O14" s="1">
-        <v>151607.2143</v>
-      </c>
-      <c r="P14" s="1">
-        <v>151607.2143</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0361</v>
+        <v>0.0291</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>9.807499999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1019.6278</v>
       </c>
       <c r="G2" s="1">
-        <v>1019.6278</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.100899999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>9.807499999999999</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>0.5</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.100899999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>10.4459</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>1019.6278</v>
       </c>
       <c r="F3" s="1">
         <v>914.6081</v>
       </c>
       <c r="G3" s="1">
-        <v>1934.236</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10595.6666</v>
       </c>
       <c r="I3" s="1">
-        <v>19553.9052</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10.1094</v>
+        <v>10595.6666</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9553.905199999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9553.905199999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>446.0948</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20546.0948</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.03</v>
+        <v>0.0596</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>9.6988</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1934.236</v>
       </c>
       <c r="F4" s="1">
         <v>1077.0502</v>
       </c>
       <c r="G4" s="1">
-        <v>3011.2862</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>29054.0939</v>
+        <v>18662.2824</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>446.0948</v>
       </c>
       <c r="J4" s="1">
-        <v>9.9625</v>
+        <v>19108.3772</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>10.34</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10446.0948</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29054.0939</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0488</v>
+        <v>-0.0722</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>10.0658</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>3011.2862</v>
       </c>
       <c r="F5" s="1">
         <v>993.463</v>
       </c>
       <c r="G5" s="1">
-        <v>4004.7492</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40101.5564</v>
+        <v>30153.5145</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>9.988099999999999</v>
+        <v>30153.5145</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>9.9625</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40101.5564</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0268</v>
+        <v>0.0359</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>11.2848</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>4004.7492</v>
       </c>
       <c r="F6" s="1">
         <v>539.0497</v>
       </c>
       <c r="G6" s="1">
-        <v>4543.7989</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>44958.5162</v>
       </c>
       <c r="I6" s="1">
-        <v>46083.0683</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>10.142</v>
+        <v>44958.5162</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>36083.0683</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>9.0101</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-6083.0683</v>
       </c>
-      <c r="O6" s="1">
-        <v>3916.9317</v>
-      </c>
-      <c r="P6" s="1">
-        <v>54926.9818</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0963</v>
+        <v>0.1197</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>11.1341</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>4543.7989</v>
       </c>
       <c r="F7" s="1">
         <v>1010.3658</v>
       </c>
       <c r="G7" s="1">
-        <v>5554.1648</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>50328.9346</v>
       </c>
       <c r="I7" s="1">
-        <v>57332.5824</v>
+        <v>3916.9317</v>
       </c>
       <c r="J7" s="1">
-        <v>10.3224</v>
+        <v>54245.8664</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>47332.5824</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>10.417</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-11249.5141</v>
       </c>
-      <c r="O7" s="1">
-        <v>2667.4176</v>
-      </c>
-      <c r="P7" s="1">
-        <v>64187.5682</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0114</v>
+        <v>-0.013</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>10.9064</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>5554.1648</v>
       </c>
       <c r="F8" s="1">
         <v>1094.3773</v>
       </c>
       <c r="G8" s="1">
-        <v>6648.5421</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>60261.5769</v>
       </c>
       <c r="I8" s="1">
-        <v>69268.2994</v>
+        <v>2667.4176</v>
       </c>
       <c r="J8" s="1">
-        <v>10.4186</v>
+        <v>62928.9945</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>59268.2994</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>10.671</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-11935.717</v>
       </c>
-      <c r="O8" s="1">
-        <v>731.7006</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72867.0528</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0178</v>
+        <v>-0.0205</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>11.6267</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>6648.5421</v>
       </c>
       <c r="F9" s="1">
         <v>515.0889</v>
       </c>
       <c r="G9" s="1">
-        <v>7163.631</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>76899.0325</v>
       </c>
       <c r="I9" s="1">
-        <v>75257.08379999999</v>
+        <v>731.7006</v>
       </c>
       <c r="J9" s="1">
-        <v>10.5054</v>
+        <v>77630.7332</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>65257.0838</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>9.815200000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-5988.7845</v>
       </c>
-      <c r="O9" s="1">
-        <v>4742.9162</v>
-      </c>
-      <c r="P9" s="1">
-        <v>87599.62179999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0571</v>
+        <v>0.0645</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>12.3095</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>7163.631</v>
       </c>
       <c r="F10" s="1">
         <v>486.8943</v>
       </c>
       <c r="G10" s="1">
-        <v>7650.5253</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>87722.9602</v>
       </c>
       <c r="I10" s="1">
-        <v>81250.5089</v>
+        <v>4742.9162</v>
       </c>
       <c r="J10" s="1">
-        <v>10.6203</v>
+        <v>92465.87639999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>71250.5089</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>9.946099999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-5993.425</v>
       </c>
-      <c r="O10" s="1">
-        <v>8749.491099999999</v>
-      </c>
-      <c r="P10" s="1">
-        <v>102434.7638</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0495</v>
+        <v>0.0552</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>13.3876</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>7650.5253</v>
       </c>
       <c r="F11" s="1">
         <v>205.0502</v>
       </c>
       <c r="G11" s="1">
-        <v>7855.5755</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>101891.2261</v>
       </c>
       <c r="I11" s="1">
-        <v>83995.63860000001</v>
+        <v>8749.491099999999</v>
       </c>
       <c r="J11" s="1">
-        <v>10.6925</v>
+        <v>110640.7173</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>73995.63860000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>9.672000000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-2745.1298</v>
       </c>
-      <c r="O11" s="1">
-        <v>16004.3614</v>
-      </c>
-      <c r="P11" s="1">
-        <v>120626.4868</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.07290000000000001</v>
+        <v>0.0798</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>13.3141</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>7855.5755</v>
       </c>
       <c r="F12" s="1">
         <v>877.4065000000001</v>
       </c>
       <c r="G12" s="1">
-        <v>8732.982</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>104047.0973</v>
       </c>
       <c r="I12" s="1">
-        <v>95677.5168</v>
+        <v>16004.3614</v>
       </c>
       <c r="J12" s="1">
-        <v>10.9559</v>
+        <v>120051.4587</v>
       </c>
       <c r="K12" s="1">
+        <v>85677.5168</v>
+      </c>
+      <c r="L12" s="1">
+        <v>10.9066</v>
+      </c>
+      <c r="M12" s="1">
         <v>0.6</v>
       </c>
-      <c r="L12" s="1">
-        <v>4242.0108</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>-7439.8674</v>
+        <v>4131.2837</v>
       </c>
       <c r="O12" s="1">
-        <v>18564.494</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>134232.8406</v>
+        <v>-7550.5945</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0276</v>
+        <v>-0.0049</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>13.7208</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>8732.982</v>
       </c>
       <c r="F13" s="1">
         <v>558.5013</v>
       </c>
       <c r="G13" s="1">
-        <v>9291.4833</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>119201.7112</v>
       </c>
       <c r="I13" s="1">
-        <v>103340.601</v>
+        <v>18453.7669</v>
       </c>
       <c r="J13" s="1">
-        <v>11.1221</v>
+        <v>137655.478</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>93340.601</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>10.6883</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-7663.0842</v>
       </c>
-      <c r="O13" s="1">
-        <v>20901.4097</v>
-      </c>
-      <c r="P13" s="1">
-        <v>147726.4399</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0242</v>
+        <v>0.0585</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>14.2021</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>9291.4833</v>
       </c>
       <c r="F14" s="1">
         <v>-9291.4833</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>131273.7923</v>
       </c>
       <c r="I14" s="1">
-        <v>103340.601</v>
+        <v>20790.6826</v>
       </c>
       <c r="J14" s="1">
-        <v>11.1221</v>
+        <v>152064.475</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>93340.601</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>10.0458</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>131273.7923</v>
       </c>
-      <c r="O14" s="1">
-        <v>152175.202</v>
-      </c>
-      <c r="P14" s="1">
-        <v>152175.202</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0352</v>
+        <v>0.0299</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>9.807499999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1019.6278</v>
       </c>
       <c r="G2" s="1">
-        <v>1019.6278</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.100899999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>9.807499999999999</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>0.5</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.100899999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>10.4459</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>1019.6278</v>
       </c>
       <c r="F3" s="1">
         <v>919.4197</v>
       </c>
       <c r="G3" s="1">
-        <v>1939.0475</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10595.6666</v>
       </c>
       <c r="I3" s="1">
-        <v>19604.166</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10.1102</v>
+        <v>10595.6666</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9604.165999999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>9.4193</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9604.165999999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>395.834</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20545.834</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.03</v>
+        <v>0.0596</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>9.6988</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1939.0475</v>
       </c>
       <c r="F4" s="1">
         <v>1071.8681</v>
       </c>
       <c r="G4" s="1">
-        <v>3010.9156</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29050.5179</v>
+        <v>18708.706</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>395.834</v>
       </c>
       <c r="J4" s="1">
-        <v>9.963699999999999</v>
+        <v>19104.54</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>10.3143</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10395.834</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29050.5179</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.049</v>
+        <v>-0.07240000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>10.0658</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>3010.9156</v>
       </c>
       <c r="F5" s="1">
         <v>993.463</v>
       </c>
       <c r="G5" s="1">
-        <v>4004.3786</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40097.845</v>
+        <v>30149.8031</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>9.989100000000001</v>
+        <v>30149.8031</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>9.963699999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40097.845</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0268</v>
+        <v>0.0359</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>11.2848</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>4004.3786</v>
       </c>
       <c r="F6" s="1">
         <v>585.0827</v>
       </c>
       <c r="G6" s="1">
-        <v>4589.4613</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>44954.3554</v>
       </c>
       <c r="I6" s="1">
-        <v>46602.5412</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>10.1543</v>
+        <v>44954.3554</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>36602.5412</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>9.140599999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-6602.5412</v>
       </c>
-      <c r="O6" s="1">
-        <v>3397.4588</v>
-      </c>
-      <c r="P6" s="1">
-        <v>54920.1281</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0963</v>
+        <v>0.1197</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>11.1341</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>4589.4613</v>
       </c>
       <c r="F7" s="1">
         <v>1034.7044</v>
       </c>
       <c r="G7" s="1">
-        <v>5624.1657</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>50834.709</v>
       </c>
       <c r="I7" s="1">
-        <v>58123.0439</v>
+        <v>3397.4588</v>
       </c>
       <c r="J7" s="1">
-        <v>10.3345</v>
+        <v>54232.1678</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>48123.0439</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>10.4856</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-11520.5027</v>
       </c>
-      <c r="O7" s="1">
-        <v>1876.9561</v>
-      </c>
-      <c r="P7" s="1">
-        <v>64172.4654</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0115</v>
+        <v>-0.0131</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>10.9064</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>5624.1657</v>
       </c>
       <c r="F8" s="1">
         <v>1088.9896</v>
       </c>
       <c r="G8" s="1">
-        <v>6713.1553</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>72836.39260000001</v>
+        <v>61021.0733</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>1876.9561</v>
       </c>
       <c r="J8" s="1">
-        <v>10.4273</v>
+        <v>62898.0294</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>10.6682</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-11876.9561</v>
       </c>
-      <c r="O8" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>72836.39260000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.018</v>
+        <v>-0.0208</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>11.6267</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>6713.1553</v>
       </c>
       <c r="F9" s="1">
         <v>577.7148</v>
       </c>
       <c r="G9" s="1">
-        <v>7290.8701</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>77646.36840000001</v>
       </c>
       <c r="I9" s="1">
-        <v>76716.9167</v>
+        <v>-0</v>
       </c>
       <c r="J9" s="1">
-        <v>10.5223</v>
+        <v>77646.36840000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>66716.9167</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>9.9382</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-6716.9167</v>
       </c>
-      <c r="O9" s="1">
-        <v>3283.0833</v>
-      </c>
-      <c r="P9" s="1">
-        <v>87611.47440000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0576</v>
+        <v>0.06510000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>12.3095</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>7290.8701</v>
       </c>
       <c r="F10" s="1">
         <v>515.4699000000001</v>
       </c>
       <c r="G10" s="1">
-        <v>7806.34</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>95593.31690000001</v>
+        <v>89281.0791</v>
       </c>
       <c r="I10" s="1">
-        <v>83062.09299999999</v>
+        <v>3283.0833</v>
       </c>
       <c r="J10" s="1">
-        <v>10.6403</v>
+        <v>92564.16250000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>73062.09299999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>10.021</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-6345.1763</v>
       </c>
-      <c r="O10" s="1">
-        <v>6937.907</v>
-      </c>
-      <c r="P10" s="1">
-        <v>102531.224</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0504</v>
+        <v>0.0561</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>13.3876</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>7806.34</v>
       </c>
       <c r="F11" s="1">
         <v>229.8223</v>
       </c>
       <c r="G11" s="1">
-        <v>8036.1623</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>107027.2167</v>
+        <v>103966.3972</v>
       </c>
       <c r="I11" s="1">
-        <v>86138.8621</v>
+        <v>6937.907</v>
       </c>
       <c r="J11" s="1">
-        <v>10.7189</v>
+        <v>110904.3042</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>76138.8621</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>9.753500000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-3076.7692</v>
       </c>
-      <c r="O11" s="1">
-        <v>13861.1379</v>
-      </c>
-      <c r="P11" s="1">
-        <v>120888.3546</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0743</v>
+        <v>0.0813</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>13.3141</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>8036.1623</v>
       </c>
       <c r="F12" s="1">
         <v>920.6233</v>
       </c>
       <c r="G12" s="1">
-        <v>8956.785599999999</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>118632.6249</v>
+        <v>106438.9696</v>
       </c>
       <c r="I12" s="1">
-        <v>98396.13250000001</v>
+        <v>13861.1379</v>
       </c>
       <c r="J12" s="1">
-        <v>10.9857</v>
+        <v>120300.1075</v>
       </c>
       <c r="K12" s="1">
+        <v>88396.13250000001</v>
+      </c>
+      <c r="L12" s="1">
+        <v>10.9998</v>
+      </c>
+      <c r="M12" s="1">
         <v>0.6</v>
       </c>
-      <c r="L12" s="1">
-        <v>4339.5276</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>-7917.7428</v>
+        <v>4215.4236</v>
       </c>
       <c r="O12" s="1">
-        <v>15943.3951</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>134576.02</v>
+        <v>-8041.8468</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0282</v>
+        <v>-0.005</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>13.7208</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>8956.785599999999</v>
       </c>
       <c r="F13" s="1">
         <v>597.4955</v>
       </c>
       <c r="G13" s="1">
-        <v>9554.281000000001</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>130412.1143</v>
+        <v>122256.5404</v>
       </c>
       <c r="I13" s="1">
-        <v>106594.2481</v>
+        <v>15819.2911</v>
       </c>
       <c r="J13" s="1">
-        <v>11.1567</v>
+        <v>138075.8314</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>96594.2481</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>10.7845</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-8198.115599999999</v>
       </c>
-      <c r="O13" s="1">
-        <v>17745.2795</v>
-      </c>
-      <c r="P13" s="1">
-        <v>148157.3938</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0248</v>
+        <v>0.0597</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>14.2021</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>9554.281000000001</v>
       </c>
       <c r="F14" s="1">
         <v>-9554.281000000001</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>134986.7041</v>
       </c>
       <c r="I14" s="1">
-        <v>106594.2481</v>
+        <v>17621.1755</v>
       </c>
       <c r="J14" s="1">
-        <v>11.1567</v>
+        <v>152607.8795</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>96594.2481</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>10.11</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>134986.7041</v>
       </c>
-      <c r="O14" s="1">
-        <v>152731.9836</v>
-      </c>
-      <c r="P14" s="1">
-        <v>152731.9836</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0343</v>
+        <v>0.0306</v>
       </c>
     </row>
   </sheetData>
@@ -4478,7 +4451,7 @@
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>14.1638</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>11.3973</v>
+        <v>10.4763</v>
       </c>
       <c r="D3" s="1">
-        <v>11.0588</v>
+        <v>9.9214</v>
       </c>
       <c r="E3" s="1">
-        <v>11.0899</v>
+        <v>9.9833</v>
       </c>
       <c r="F3" s="1">
-        <v>11.1221</v>
+        <v>10.0458</v>
       </c>
       <c r="G3" s="1">
-        <v>11.1567</v>
+        <v>10.11</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.3912</v>
       </c>
       <c r="C4" s="3">
-        <v>0.2903</v>
+        <v>0.4096</v>
       </c>
       <c r="D4" s="3">
-        <v>0.2622</v>
+        <v>0.383</v>
       </c>
       <c r="E4" s="3">
-        <v>0.2668</v>
+        <v>0.3878</v>
       </c>
       <c r="F4" s="3">
-        <v>0.2712</v>
+        <v>0.3923</v>
       </c>
       <c r="G4" s="3">
-        <v>0.2755</v>
+        <v>0.3967</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.176</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1473</v>
+        <v>0.1787</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1443</v>
+        <v>0.1709</v>
       </c>
       <c r="E5" s="3">
-        <v>0.145</v>
+        <v>0.1722</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1456</v>
+        <v>0.1733</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1462</v>
+        <v>0.1744</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>2.1074</v>
       </c>
       <c r="C6" s="4">
-        <v>1.833</v>
+        <v>2.1786</v>
       </c>
       <c r="D6" s="4">
-        <v>1.676</v>
+        <v>2.1218</v>
       </c>
       <c r="E6" s="4">
-        <v>1.6994</v>
+        <v>2.1342</v>
       </c>
       <c r="F6" s="4">
-        <v>1.7228</v>
+        <v>2.1466</v>
       </c>
       <c r="G6" s="4">
-        <v>1.7455</v>
+        <v>2.158</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.5797</v>
+        <v>0.3147</v>
       </c>
       <c r="D7" s="3">
-        <v>0.5859</v>
+        <v>0.5841</v>
       </c>
       <c r="E7" s="3">
-        <v>0.5861</v>
+        <v>0.5841</v>
       </c>
       <c r="F7" s="3">
-        <v>0.5861</v>
+        <v>0.5838</v>
       </c>
       <c r="G7" s="3">
-        <v>0.5859</v>
+        <v>0.5833</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>4925.9188</v>
+        <v>4522.5604</v>
       </c>
       <c r="D8" s="1">
-        <v>4054.602</v>
+        <v>3968.7725</v>
       </c>
       <c r="E8" s="1">
-        <v>4147.0576</v>
+        <v>4049.0809</v>
       </c>
       <c r="F8" s="1">
-        <v>4242.0108</v>
+        <v>4131.2837</v>
       </c>
       <c r="G8" s="1">
-        <v>4339.5276</v>
+        <v>4215.4236</v>
       </c>
     </row>
   </sheetData>
